--- a/simulation_data/iterative_algorithm/i_error_level_4_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_4_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.69497495937607</v>
+        <v>89.8546029167194</v>
       </c>
       <c r="D2" t="n">
-        <v>4.957497990244848</v>
+        <v>4.394570836481332</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.031452170161</v>
+        <v>87.98099109303315</v>
       </c>
       <c r="D3" t="n">
-        <v>4.393415254420627</v>
+        <v>4.250546000543231</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.96581252740283</v>
+        <v>87.67789528169314</v>
       </c>
       <c r="D4" t="n">
-        <v>4.889540130670023</v>
+        <v>4.688306110851152</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.42992654313531</v>
+        <v>87.04687042387395</v>
       </c>
       <c r="D5" t="n">
-        <v>4.840837216265815</v>
+        <v>4.751663977278043</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.41839819494813</v>
+        <v>86.54576980175059</v>
       </c>
       <c r="D6" t="n">
-        <v>4.878873269226411</v>
+        <v>4.041220907045613</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.15520355322184</v>
+        <v>85.19180813662256</v>
       </c>
       <c r="D7" t="n">
-        <v>4.450961014340493</v>
+        <v>4.116692019080658</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.30320636409493</v>
+        <v>83.88698406551168</v>
       </c>
       <c r="D8" t="n">
-        <v>4.896936229522673</v>
+        <v>3.951543894899121</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.35151491861012</v>
+        <v>82.9908485241362</v>
       </c>
       <c r="D9" t="n">
-        <v>5.459894620161079</v>
+        <v>4.864936335674757</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.61686688538626</v>
+        <v>81.10412975374186</v>
       </c>
       <c r="D10" t="n">
-        <v>4.877481358224919</v>
+        <v>4.802556721952421</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.11871607000789</v>
+        <v>81.29518541475183</v>
       </c>
       <c r="D11" t="n">
-        <v>4.939159085708276</v>
+        <v>4.201108437128379</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.17586961640204</v>
+        <v>80.12907470910663</v>
       </c>
       <c r="D12" t="n">
-        <v>5.01469870389009</v>
+        <v>4.610716439926339</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.02296750884182</v>
+        <v>78.39559198350769</v>
       </c>
       <c r="D13" t="n">
-        <v>4.738683017005736</v>
+        <v>4.275992125897878</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.8844644462817</v>
+        <v>78.5860330159247</v>
       </c>
       <c r="D14" t="n">
-        <v>4.84891877112017</v>
+        <v>3.755664115593517</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.22484900757115</v>
+        <v>76.77511197673275</v>
       </c>
       <c r="D15" t="n">
-        <v>3.83887352739958</v>
+        <v>4.242486705462468</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.29598089453948</v>
+        <v>76.04249404603839</v>
       </c>
       <c r="D16" t="n">
-        <v>4.794880028990194</v>
+        <v>4.813146097158933</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.70165791141044</v>
+        <v>75.37755508046864</v>
       </c>
       <c r="D17" t="n">
-        <v>4.699417870785179</v>
+        <v>4.685246832991712</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.22441596569058</v>
+        <v>74.39570979827269</v>
       </c>
       <c r="D18" t="n">
-        <v>4.80480019381289</v>
+        <v>4.080195082910419</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.17462056986098</v>
+        <v>73.29150875428283</v>
       </c>
       <c r="D19" t="n">
-        <v>4.647843289741291</v>
+        <v>4.402229896139301</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.18912409257454</v>
+        <v>72.83123609450625</v>
       </c>
       <c r="D20" t="n">
-        <v>4.718461995945768</v>
+        <v>4.383344827183472</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.43070275567868</v>
+        <v>71.27415130095011</v>
       </c>
       <c r="D21" t="n">
-        <v>4.212458893676148</v>
+        <v>4.385892279864904</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.89745084134057</v>
+        <v>69.90284734793687</v>
       </c>
       <c r="D22" t="n">
-        <v>4.873604230698415</v>
+        <v>5.042965241826958</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.94450074094816</v>
+        <v>69.29620087023586</v>
       </c>
       <c r="D23" t="n">
-        <v>5.227645954583931</v>
+        <v>4.489458114504725</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.7739837989575</v>
+        <v>69.06803106453587</v>
       </c>
       <c r="D24" t="n">
-        <v>5.126027599944658</v>
+        <v>4.51204965624089</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.23146029851826</v>
+        <v>67.00090411837827</v>
       </c>
       <c r="D25" t="n">
-        <v>4.808347207357898</v>
+        <v>4.782226898758311</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.2100824709715</v>
+        <v>66.4754276177655</v>
       </c>
       <c r="D26" t="n">
-        <v>4.303873864390741</v>
+        <v>4.667607685012015</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.06589797742286</v>
+        <v>65.38374116163399</v>
       </c>
       <c r="D27" t="n">
-        <v>5.433369263112629</v>
+        <v>4.767417240385243</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.85217567514852</v>
+        <v>64.38959350538209</v>
       </c>
       <c r="D28" t="n">
-        <v>4.779756612283412</v>
+        <v>4.571149959775123</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.68192538836056</v>
+        <v>63.48121862015264</v>
       </c>
       <c r="D29" t="n">
-        <v>4.675934238417487</v>
+        <v>4.684463393335689</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.15358714100203</v>
+        <v>61.22352983294452</v>
       </c>
       <c r="D30" t="n">
-        <v>4.988291590104686</v>
+        <v>4.564559231857195</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.42072818036941</v>
+        <v>60.58164495820083</v>
       </c>
       <c r="D31" t="n">
-        <v>4.297258669720014</v>
+        <v>4.702431859164821</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.3216408270738</v>
+        <v>59.57749011964428</v>
       </c>
       <c r="D32" t="n">
-        <v>4.339210249264561</v>
+        <v>4.351996252360058</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.76644181685879</v>
+        <v>58.55511450325459</v>
       </c>
       <c r="D33" t="n">
-        <v>5.015037326149891</v>
+        <v>4.898208116275196</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.29797823284783</v>
+        <v>57.99985988081662</v>
       </c>
       <c r="D34" t="n">
-        <v>4.49439548851216</v>
+        <v>5.105643385095384</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.89064494089617</v>
+        <v>56.72847306257275</v>
       </c>
       <c r="D35" t="n">
-        <v>4.879528451647744</v>
+        <v>4.652419406346577</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.50490859910958</v>
+        <v>55.62464171025222</v>
       </c>
       <c r="D36" t="n">
-        <v>4.419925539592882</v>
+        <v>4.319877228090928</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.81104285613894</v>
+        <v>54.30225259231431</v>
       </c>
       <c r="D37" t="n">
-        <v>4.566107493202532</v>
+        <v>4.400445729859982</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.36037391534425</v>
+        <v>53.91032923639159</v>
       </c>
       <c r="D38" t="n">
-        <v>4.918705301173093</v>
+        <v>4.493081590189866</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.02841713948136</v>
+        <v>52.04883621570097</v>
       </c>
       <c r="D39" t="n">
-        <v>4.993869375017593</v>
+        <v>4.652023844100587</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.37936982001933</v>
+        <v>52.44111851103057</v>
       </c>
       <c r="D40" t="n">
-        <v>5.063249965687163</v>
+        <v>4.969838376528863</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.79689935535865</v>
+        <v>51.16977389747851</v>
       </c>
       <c r="D41" t="n">
-        <v>4.761966995013136</v>
+        <v>4.74897066571065</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.31891427364573</v>
+        <v>50.02538318528034</v>
       </c>
       <c r="D42" t="n">
-        <v>4.600923694098874</v>
+        <v>4.421710996910952</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.75503659818673</v>
+        <v>48.80593306040847</v>
       </c>
       <c r="D43" t="n">
-        <v>4.814924932551012</v>
+        <v>5.433983324683135</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.1352363928579</v>
+        <v>48.19069571107275</v>
       </c>
       <c r="D44" t="n">
-        <v>4.396295746090924</v>
+        <v>4.672484142744853</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.91382656056433</v>
+        <v>46.92907270619627</v>
       </c>
       <c r="D45" t="n">
-        <v>5.195913472890379</v>
+        <v>4.668697030721661</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.05136289366163</v>
+        <v>45.41374516125796</v>
       </c>
       <c r="D46" t="n">
-        <v>4.457551980293549</v>
+        <v>5.234041026558787</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.13763780180674</v>
+        <v>45.0904052183349</v>
       </c>
       <c r="D47" t="n">
-        <v>5.076921636748681</v>
+        <v>4.783810982029204</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.69540608295195</v>
+        <v>42.96736358636078</v>
       </c>
       <c r="D48" t="n">
-        <v>5.096730884543758</v>
+        <v>4.504300881345471</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.66758057114778</v>
+        <v>42.97078246390797</v>
       </c>
       <c r="D49" t="n">
-        <v>5.208392879067311</v>
+        <v>4.862880792268057</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.78305755496187</v>
+        <v>42.13295914897553</v>
       </c>
       <c r="D50" t="n">
-        <v>4.476096621882267</v>
+        <v>4.205689126216116</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.64104444311391</v>
+        <v>40.86184913908768</v>
       </c>
       <c r="D51" t="n">
-        <v>4.799802892141376</v>
+        <v>4.748954674815757</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.74539794114594</v>
+        <v>39.28844693294231</v>
       </c>
       <c r="D52" t="n">
-        <v>5.229089754357688</v>
+        <v>4.790722365019335</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.9194149026728</v>
+        <v>40.04300629718543</v>
       </c>
       <c r="D53" t="n">
-        <v>4.672331007218178</v>
+        <v>5.234334944366758</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.43160168164685</v>
+        <v>37.78291465200824</v>
       </c>
       <c r="D54" t="n">
-        <v>4.550747979729802</v>
+        <v>4.659262718853999</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.52693758561888</v>
+        <v>37.83061219457739</v>
       </c>
       <c r="D55" t="n">
-        <v>4.931155979797422</v>
+        <v>5.360845547466847</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.35512690101623</v>
+        <v>35.97350559373454</v>
       </c>
       <c r="D56" t="n">
-        <v>4.889085592895816</v>
+        <v>5.235135005147049</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.10630729880005</v>
+        <v>35.08228712797852</v>
       </c>
       <c r="D57" t="n">
-        <v>4.369639659209517</v>
+        <v>5.149685959572399</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.83763464731769</v>
+        <v>33.99203010909489</v>
       </c>
       <c r="D58" t="n">
-        <v>4.646653734059154</v>
+        <v>4.70700815387757</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.38053482288371</v>
+        <v>33.31893720548047</v>
       </c>
       <c r="D59" t="n">
-        <v>4.39065055885676</v>
+        <v>5.153282540291134</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.18561020276913</v>
+        <v>32.19285535536807</v>
       </c>
       <c r="D60" t="n">
-        <v>4.393556558312043</v>
+        <v>4.763709816299987</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.13374409840682</v>
+        <v>30.45561946203654</v>
       </c>
       <c r="D61" t="n">
-        <v>5.030061722108696</v>
+        <v>5.618197221392454</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.04842030564903</v>
+        <v>29.95800550003204</v>
       </c>
       <c r="D62" t="n">
-        <v>4.660368713038307</v>
+        <v>4.439820927539128</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.86696832248268</v>
+        <v>28.48875607634308</v>
       </c>
       <c r="D63" t="n">
-        <v>4.624848008333147</v>
+        <v>4.499894283584956</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.97360787763663</v>
+        <v>28.50815370482923</v>
       </c>
       <c r="D64" t="n">
-        <v>4.424810353789118</v>
+        <v>4.242187471731563</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.64507831744402</v>
+        <v>27.18432274661562</v>
       </c>
       <c r="D65" t="n">
-        <v>4.557567284390728</v>
+        <v>4.866718130569361</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.24262323433298</v>
+        <v>25.99801665741284</v>
       </c>
       <c r="D66" t="n">
-        <v>4.524274344185175</v>
+        <v>4.728953209712373</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.8162810380799</v>
+        <v>25.08258488055593</v>
       </c>
       <c r="D67" t="n">
-        <v>4.92547620154048</v>
+        <v>5.272901894051739</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.10789105315403</v>
+        <v>23.94877484525285</v>
       </c>
       <c r="D68" t="n">
-        <v>5.001461149360074</v>
+        <v>5.01622921862169</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.96474725977683</v>
+        <v>22.94123075539061</v>
       </c>
       <c r="D69" t="n">
-        <v>5.340294366422909</v>
+        <v>4.812321943995715</v>
       </c>
     </row>
   </sheetData>
